--- a/Portfolio/康力泉净资产表[来源：随手记].xlsx
+++ b/Portfolio/康力泉净资产表[来源：随手记].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69FB5B-5EA1-453E-ABCC-109D6976E040}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F2B3B8-9647-4FAA-8420-6D1B7D34EF23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>三年环比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年环比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年环比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -320,7 +332,47 @@
     <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -703,28 +755,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,8 +790,17 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="8">
         <v>41820</v>
       </c>
@@ -752,7 +811,7 @@
       <c r="D2" s="3"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>41851</v>
       </c>
@@ -765,7 +824,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>41882</v>
       </c>
@@ -778,7 +837,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>41912</v>
       </c>
@@ -794,7 +853,7 @@
         <v>2.5553917102715262E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>41943</v>
       </c>
@@ -810,7 +869,7 @@
         <v>0.18867080679490034</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>41973</v>
       </c>
@@ -826,7 +885,7 @@
         <v>0.17578227262112067</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>42004</v>
       </c>
@@ -843,7 +902,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>42035</v>
       </c>
@@ -859,7 +918,7 @@
         <v>-7.4875104359619415E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>42063</v>
       </c>
@@ -875,7 +934,7 @@
         <v>-4.8472418444935883E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>42094</v>
       </c>
@@ -891,7 +950,7 @@
         <v>-1.4442524014728897E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>42124</v>
       </c>
@@ -907,7 +966,7 @@
         <v>0.17496412038176423</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>42155</v>
       </c>
@@ -923,7 +982,7 @@
         <v>0.15769103549769015</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="8">
         <v>42185</v>
       </c>
@@ -943,7 +1002,7 @@
         <v>0.29966118001681163</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>42216</v>
       </c>
@@ -963,7 +1022,7 @@
         <v>0.46945229839448044</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>42247</v>
       </c>
@@ -1426,6 +1485,10 @@
         <f t="shared" si="2"/>
         <v>0.24045491008298048</v>
       </c>
+      <c r="F38" s="3">
+        <f>B38/B2-1</f>
+        <v>2.4205973356036381</v>
+      </c>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11">
@@ -1447,6 +1510,10 @@
         <f t="shared" si="2"/>
         <v>0.23508472616226816</v>
       </c>
+      <c r="F39" s="3">
+        <f t="shared" ref="F39:F64" si="4">B39/B3-1</f>
+        <v>2.7588611553458784</v>
+      </c>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11">
@@ -1468,6 +1535,10 @@
         <f t="shared" si="2"/>
         <v>0.21066543525883863</v>
       </c>
+      <c r="F40" s="3">
+        <f t="shared" si="4"/>
+        <v>2.6101772154283274</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2">
@@ -1488,6 +1559,10 @@
         <f t="shared" si="2"/>
         <v>0.20237211151997281</v>
       </c>
+      <c r="F41" s="3">
+        <f t="shared" si="4"/>
+        <v>2.4605695287803617</v>
+      </c>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11">
@@ -1509,6 +1584,10 @@
         <f t="shared" si="2"/>
         <v>0.1970093215155031</v>
       </c>
+      <c r="F42" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2629609613855424</v>
+      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2">
@@ -1529,6 +1608,10 @@
         <f t="shared" si="2"/>
         <v>0.16780326294878134</v>
       </c>
+      <c r="F43" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2604586062856837</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7">
@@ -1549,6 +1632,10 @@
         <f t="shared" si="2"/>
         <v>0.15700783814069141</v>
       </c>
+      <c r="F44" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2900217016148492</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2">
@@ -1569,6 +1656,10 @@
         <f t="shared" si="2"/>
         <v>0.30850485909842318</v>
       </c>
+      <c r="F45" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3095694476712909</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2">
@@ -1589,6 +1680,10 @@
         <f t="shared" si="2"/>
         <v>0.29780182159122126</v>
       </c>
+      <c r="F46" s="3">
+        <f t="shared" si="4"/>
+        <v>3.0595652440366887</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2">
@@ -1609,6 +1704,10 @@
         <f t="shared" si="2"/>
         <v>0.25303917192774117</v>
       </c>
+      <c r="F47" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8104459049571981</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2">
@@ -1629,6 +1728,10 @@
         <f t="shared" si="2"/>
         <v>0.2955766726419542</v>
       </c>
+      <c r="F48" s="3">
+        <f t="shared" si="4"/>
+        <v>2.7654363688730799</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">
@@ -1649,6 +1752,10 @@
         <f t="shared" si="2"/>
         <v>0.37799746935230627</v>
       </c>
+      <c r="F49" s="3">
+        <f t="shared" si="4"/>
+        <v>2.6882800883048916</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8">
@@ -1669,6 +1776,10 @@
         <f t="shared" si="2"/>
         <v>0.36527804594669955</v>
       </c>
+      <c r="F50" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5932953281431494</v>
+      </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:14">
@@ -1679,7 +1790,7 @@
         <v>1022974.54</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ref="C51:C58" si="4">B51/B50-1</f>
+        <f t="shared" ref="C51:C58" si="5">B51/B50-1</f>
         <v>-1.5568464899595402E-2</v>
       </c>
       <c r="D51" s="3">
@@ -1689,6 +1800,10 @@
       <c r="E51" s="3">
         <f t="shared" si="2"/>
         <v>0.32113738631349231</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="4"/>
+        <v>2.3794713906091234</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -1699,16 +1814,20 @@
         <v>1037430.09</v>
       </c>
       <c r="C52" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4130899093539373E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6876158574882236E-3</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="2"/>
+        <v>0.32678937181222967</v>
+      </c>
+      <c r="F52" s="3">
         <f t="shared" si="4"/>
-        <v>1.4130899093539373E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6876158574882236E-3</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="2"/>
-        <v>0.32678937181222967</v>
+        <v>1.9207945389314371</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -1719,16 +1838,20 @@
         <v>1041568.45</v>
       </c>
       <c r="C53" s="3">
+        <f t="shared" si="5"/>
+        <v>3.9890495175438634E-3</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3248752072060341E-3</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31894137211590912</v>
+      </c>
+      <c r="F53" s="3">
         <f t="shared" si="4"/>
-        <v>3.9890495175438634E-3</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3248752072060341E-3</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="2"/>
-        <v>0.31894137211590912</v>
+        <v>1.8074092350658946</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -1739,16 +1862,20 @@
         <v>1056355.1399999999</v>
       </c>
       <c r="C54" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4196560965340277E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2630919631684963E-2</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="2"/>
+        <v>0.32213534927902421</v>
+      </c>
+      <c r="F54" s="3">
         <f t="shared" si="4"/>
-        <v>1.4196560965340277E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="1"/>
-        <v>3.2630919631684963E-2</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="2"/>
-        <v>0.32213534927902421</v>
+        <v>1.7318066788682547</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -1759,16 +1886,20 @@
         <v>1070191.28</v>
       </c>
       <c r="C55" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3098000356206008E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1579178506380146E-2</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="2"/>
+        <v>0.28892448468103415</v>
+      </c>
+      <c r="F55" s="3">
         <f t="shared" si="4"/>
-        <v>1.3098000356206008E-2</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="1"/>
-        <v>3.1579178506380146E-2</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="2"/>
-        <v>0.28892448468103415</v>
+        <v>1.1903307305598427</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -1790,6 +1921,10 @@
         <f t="shared" si="2"/>
         <v>0.23651711276487042</v>
       </c>
+      <c r="F56" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0673858300768293</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2">
@@ -1799,16 +1934,20 @@
         <v>1062566.3899999999</v>
       </c>
       <c r="C57" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5482700015165394E-2</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8798880838502043E-3</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8427905047938182E-2</v>
+      </c>
+      <c r="F57" s="3">
         <f t="shared" si="4"/>
-        <v>2.5482700015165394E-2</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="1"/>
-        <v>5.8798880838502043E-3</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="2"/>
-        <v>8.8427905047938182E-2</v>
+        <v>1.1073798329587849</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -1822,16 +1961,20 @@
         <v>1116914.0900000001</v>
       </c>
       <c r="C58" s="3">
+        <f t="shared" si="5"/>
+        <v>5.1147580529062431E-2</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3658372921894895E-2</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13543850810894065</v>
+      </c>
+      <c r="F58" s="3">
         <f t="shared" si="4"/>
-        <v>5.1147580529062431E-2</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3658372921894895E-2</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="2"/>
-        <v>0.13543850810894065</v>
+        <v>1.0899466786836305</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -1856,6 +1999,10 @@
         <f t="shared" si="2"/>
         <v>0.35332876642239031</v>
       </c>
+      <c r="F59" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3815030395874643</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -1868,7 +2015,7 @@
         <v>1309201.24</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ref="C60:C61" si="5">B60/B59-1</f>
+        <f t="shared" ref="C60:C61" si="6">B60/B59-1</f>
         <v>1.1384968730798306E-2</v>
       </c>
       <c r="D60" s="3">
@@ -1878,6 +2025,10 @@
       <c r="E60" s="3">
         <f t="shared" si="2"/>
         <v>0.30630312813205118</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3572849425614</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -1888,7 +2039,7 @@
         <v>1317107.8700000001</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.039277811866528E-3</v>
       </c>
       <c r="D61" s="3">
@@ -1898,6 +2049,10 @@
       <c r="E61" s="3">
         <f t="shared" si="2"/>
         <v>0.27299927265213109</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2724841257036643</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -1919,6 +2074,14 @@
         <f t="shared" si="2"/>
         <v>0.2406955359922851</v>
       </c>
+      <c r="F62" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1011995971045807</v>
+      </c>
+      <c r="G62" s="3">
+        <f>B62/B2-1</f>
+        <v>4.7941305927408244</v>
+      </c>
       <c r="J62" t="s">
         <v>5</v>
       </c>
@@ -1934,16 +2097,24 @@
         <v>1305537.18</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ref="C63:C64" si="6">B63/B62-1</f>
+        <f t="shared" ref="C63:C64" si="7">B63/B62-1</f>
         <v>1.2615841252357152E-2</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" ref="D63:D64" si="7">B63/B60-1</f>
+        <f t="shared" ref="D63:D64" si="8">B63/B60-1</f>
         <v>-2.7986988463286622E-3</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" ref="E63:E64" si="8">B63/B51-1</f>
+        <f t="shared" ref="E63:E64" si="9">B63/B51-1</f>
         <v>0.2762166886382138</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0824239649786298</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" ref="G63:G64" si="10">B63/B3-1</f>
+        <v>5.3376563446313057</v>
       </c>
       <c r="J63" t="s">
         <v>5</v>
@@ -1960,16 +2131,24 @@
         <v>1330225.0900000001</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8910154669053769E-2</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.9591083606538344E-3</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.28223106580608248</v>
+      </c>
+      <c r="F64" s="3">
+        <f>B64/B28-1</f>
+        <v>1.0596452379862642</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="10"/>
+        <v>5.1418159744964775</v>
       </c>
       <c r="J64" t="s">
         <v>5</v>
@@ -2094,30 +2273,46 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:D6 C7:C59 D7:D64">
-    <cfRule type="cellIs" dxfId="7" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="5" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="62" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C64">
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E64">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F64">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:G64">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Portfolio/康力泉净资产表[来源：随手记].xlsx
+++ b/Portfolio/康力泉净资产表[来源：随手记].xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F2B3B8-9647-4FAA-8420-6D1B7D34EF23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C2CF5-48F8-4B09-89DA-0FDEA233B07D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1511,7 +1511,7 @@
         <v>0.23508472616226816</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" ref="F39:F64" si="4">B39/B3-1</f>
+        <f t="shared" ref="F39:F63" si="4">B39/B3-1</f>
         <v>2.7588611553458784</v>
       </c>
       <c r="K39" s="4"/>
@@ -2097,15 +2097,15 @@
         <v>1305537.18</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ref="C63:C64" si="7">B63/B62-1</f>
+        <f t="shared" ref="C63" si="7">B63/B62-1</f>
         <v>1.2615841252357152E-2</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" ref="D63:D64" si="8">B63/B60-1</f>
+        <f t="shared" ref="D63" si="8">B63/B60-1</f>
         <v>-2.7986988463286622E-3</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" ref="E63:E64" si="9">B63/B51-1</f>
+        <f t="shared" ref="E63" si="9">B63/B51-1</f>
         <v>0.2762166886382138</v>
       </c>
       <c r="F63" s="3">
@@ -2113,7 +2113,7 @@
         <v>1.0824239649786298</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" ref="G63:G64" si="10">B63/B3-1</f>
+        <f t="shared" ref="G63" si="10">B63/B3-1</f>
         <v>5.3376563446313057</v>
       </c>
       <c r="J63" t="s">
@@ -2128,27 +2128,27 @@
         <v>43708</v>
       </c>
       <c r="B64" s="6">
-        <v>1330225.0900000001</v>
+        <v>1339577.6100000001</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="7"/>
-        <v>1.8910154669053769E-2</v>
+        <f>B64/B63-1</f>
+        <v>2.6073887838261367E-2</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="8"/>
-        <v>9.9591083606538344E-3</v>
+        <f>B64/B61-1</f>
+        <v>1.7059908692216741E-2</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="9"/>
-        <v>0.28223106580608248</v>
+        <f>B64/B52-1</f>
+        <v>0.2912461503791548</v>
       </c>
       <c r="F64" s="3">
         <f>B64/B28-1</f>
-        <v>1.0596452379862642</v>
+        <v>1.0741261505972055</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="10"/>
-        <v>5.1418159744964775</v>
+        <f>B64/B4-1</f>
+        <v>5.1849977316063196</v>
       </c>
       <c r="J64" t="s">
         <v>5</v>

--- a/Portfolio/康力泉净资产表[来源：随手记].xlsx
+++ b/Portfolio/康力泉净资产表[来源：随手记].xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C2CF5-48F8-4B09-89DA-0FDEA233B07D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9745867-1F10-4928-8321-81D45B5CE768}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="3855" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="净资产表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2161,6 +2161,29 @@
       <c r="A65" s="2">
         <v>43738</v>
       </c>
+      <c r="B65" s="6">
+        <v>1455792.78</v>
+      </c>
+      <c r="C65" s="3">
+        <f>B65/B64-1</f>
+        <v>8.6755085433235957E-2</v>
+      </c>
+      <c r="D65" s="3">
+        <f>B65/B62-1</f>
+        <v>0.12915882687370694</v>
+      </c>
+      <c r="E65" s="3">
+        <f>B65/B53-1</f>
+        <v>0.39769285446386182</v>
+      </c>
+      <c r="F65" s="3">
+        <f>B65/B29-1</f>
+        <v>1.2165428456370315</v>
+      </c>
+      <c r="G65" s="3">
+        <f>B65/B5-1</f>
+        <v>5.3794731741997897</v>
+      </c>
       <c r="J65" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2295,7 @@
     <sortCondition ref="K62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C3:D6 C7:C59 D7:D64">
+  <conditionalFormatting sqref="C3:D6 C7:C59 D7:D65">
     <cfRule type="cellIs" dxfId="11" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2288,7 +2311,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C64">
+  <conditionalFormatting sqref="C60:C65">
     <cfRule type="cellIs" dxfId="7" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2296,7 +2319,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E64">
+  <conditionalFormatting sqref="E14:E65">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2304,7 +2327,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F64">
+  <conditionalFormatting sqref="F38:F65">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2312,7 +2335,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:G64">
+  <conditionalFormatting sqref="G62:G65">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Portfolio/康力泉净资产表[来源：随手记].xlsx
+++ b/Portfolio/康力泉净资产表[来源：随手记].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9745867-1F10-4928-8321-81D45B5CE768}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FDC1E1-4E51-4B49-9670-8D38C848836C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="3855" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16950" yWindow="5310" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="净资产表" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -755,8 +756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2195,6 +2197,29 @@
       <c r="A66" s="2">
         <v>43769</v>
       </c>
+      <c r="B66" s="6">
+        <v>1453096.24</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66:C67" si="11">B66/B65-1</f>
+        <v>-1.8522828503105826E-3</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" ref="D66:D67" si="12">B66/B63-1</f>
+        <v>0.11302555167367978</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" ref="E66:E67" si="13">B66/B54-1</f>
+        <v>0.37557549064417883</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" ref="F66:F67" si="14">B66/B30-1</f>
+        <v>1.1769972402057718</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" ref="G66:G67" si="15">B66/B6-1</f>
+        <v>4.9343372521460314</v>
+      </c>
       <c r="J66" t="s">
         <v>5</v>
       </c>
@@ -2205,6 +2230,29 @@
     <row r="67" spans="1:14">
       <c r="A67" s="2">
         <v>43799</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1457036.37</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="11"/>
+        <v>2.7115409781806044E-3</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="12"/>
+        <v>8.7683430301585874E-2</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="13"/>
+        <v>0.36147284810618152</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0493028437312395</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="15"/>
+        <v>4.7215691253144731</v>
       </c>
       <c r="J67" t="s">
         <v>5</v>
@@ -2295,7 +2343,7 @@
     <sortCondition ref="K62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C3:D6 C7:C59 D7:D65">
+  <conditionalFormatting sqref="C3:D6 C7:C59 D7:D67">
     <cfRule type="cellIs" dxfId="11" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2311,7 +2359,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C65">
+  <conditionalFormatting sqref="C60:C67">
     <cfRule type="cellIs" dxfId="7" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2319,7 +2367,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E65">
+  <conditionalFormatting sqref="E14:E67">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2327,7 +2375,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F65">
+  <conditionalFormatting sqref="F38:F67">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2335,7 +2383,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:G65">
+  <conditionalFormatting sqref="G62:G67">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
